--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2593.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2593.xlsx
@@ -354,7 +354,7 @@
         <v>1.405029630275433</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.158915721767583</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2593.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2593.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7980084343698853</v>
+        <v>1.6262526512146</v>
       </c>
       <c r="B1">
-        <v>1.405029630275433</v>
+        <v>2.653408527374268</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.493977069854736</v>
       </c>
       <c r="D1">
-        <v>2.158915721767583</v>
+        <v>2.810638427734375</v>
       </c>
       <c r="E1">
-        <v>0.9581066768134807</v>
+        <v>0.8683362603187561</v>
       </c>
     </row>
   </sheetData>
